--- a/Excel/9. Conditional Formatting/Formatting.xlsx
+++ b/Excel/9. Conditional Formatting/Formatting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\Excercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\9. Conditional Formatting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B41E0-1B6C-4348-A55B-C72C0E436861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027C98EA-01B0-4E4A-97A8-259A0608C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="3" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,7 +715,9 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{35BDB216-85C1-483C-A8D1-D70F012F9AE8}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -728,9 +730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -768,7 +770,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -874,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1016,7 +1018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,17 +1030,17 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1055,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1066,7 +1068,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -1083,7 +1085,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -1100,7 +1102,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -1117,7 +1119,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -1134,7 +1136,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>5</v>
       </c>
@@ -1151,7 +1153,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>6</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>7</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>8</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>9</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>10</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>11</v>
       </c>
@@ -1271,21 +1273,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
